--- a/hebrewOutputs/hebrew82Comperation_9_Common_alpha=0.0.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_9_Common_alpha=0.0.xlsx
@@ -34,97 +34,97 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">היי שלום. </t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>הורה:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מה קורה? </t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יבשתם אותי פה. </t>
+  </si>
+  <si>
+    <t>crit</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>שלום, קוראים לי דוק.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">היי. </t>
+  </si>
+  <si>
+    <t>מה שמך?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מה (לא נשמע) </t>
+  </si>
+  <si>
+    <t>unintel</t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>יעל.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אא יעל </t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אז ככה, אני הרופא המטפל של יואב </t>
+  </si>
+  <si>
+    <t>gives-med</t>
+  </si>
+  <si>
+    <t>אא אני כרגע באתי כדי לספר לך על המחלה על מצבו ו...</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אמרתם שמשחררים אותו לא? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">היה לו כאבי בטן </t>
+  </si>
+  <si>
+    <t>אני צריכה שהוא ישתחרר.</t>
+  </si>
+  <si>
+    <t>אא אז בואי תספרי לי בבקשה מה את יודעת מה מה קרה במהלך הימים האחרונים מה היה?</t>
+  </si>
+  <si>
+    <t>מה קרה?</t>
+  </si>
+  <si>
+    <t>כמו שאמרתי בהתחלה, היו לו הקאות, בחילות,</t>
+  </si>
+  <si>
+    <t>אוקיי.</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
     <t>trans</t>
-  </si>
-  <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">היי שלום. </t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>הורה:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מה קורה? </t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יבשתם אותי פה. </t>
-  </si>
-  <si>
-    <t>crit</t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t>שלום, קוראים לי דוק.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">היי. </t>
-  </si>
-  <si>
-    <t>מה שמך?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מה (לא נשמע) </t>
-  </si>
-  <si>
-    <t>unintel</t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>יעל.</t>
-  </si>
-  <si>
-    <t>gives-med</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אא יעל </t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אז ככה, אני הרופא המטפל של יואב </t>
-  </si>
-  <si>
-    <t>אא אני כרגע באתי כדי לספר לך על המחלה על מצבו ו...</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אמרתם שמשחררים אותו לא? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">היה לו כאבי בטן </t>
-  </si>
-  <si>
-    <t>אני צריכה שהוא ישתחרר.</t>
-  </si>
-  <si>
-    <t>אא אז בואי תספרי לי בבקשה מה את יודעת מה מה קרה במהלך הימים האחרונים מה היה?</t>
-  </si>
-  <si>
-    <t>מה קרה?</t>
-  </si>
-  <si>
-    <t>כמו שאמרתי בהתחלה, היו לו הקאות, בחילות,</t>
-  </si>
-  <si>
-    <t>אוקיי.</t>
-  </si>
-  <si>
-    <t>bc</t>
   </si>
   <si>
     <t xml:space="preserve">כאבי בטן. ו... ולכן אמרתי שנבוא לפה יעשה סידרת בדיקות. </t>
@@ -826,276 +826,276 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1103,13 +1103,13 @@
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1117,13 +1117,13 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1131,13 +1131,13 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1148,10 +1148,10 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1159,13 +1159,13 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1173,13 +1173,13 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1187,13 +1187,13 @@
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1201,13 +1201,13 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1215,13 +1215,13 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1229,13 +1229,13 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1243,13 +1243,13 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1257,13 +1257,13 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1271,13 +1271,13 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
         <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1288,10 +1288,10 @@
         <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1299,13 +1299,13 @@
         <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1316,10 +1316,10 @@
         <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1327,13 +1327,13 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1341,13 +1341,13 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1355,13 +1355,13 @@
         <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1372,10 +1372,10 @@
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1383,13 +1383,13 @@
         <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1397,13 +1397,13 @@
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1414,10 +1414,10 @@
         <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1425,13 +1425,13 @@
         <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1439,13 +1439,13 @@
         <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1453,13 +1453,13 @@
         <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1470,10 +1470,10 @@
         <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1481,13 +1481,13 @@
         <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1495,13 +1495,13 @@
         <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1509,13 +1509,13 @@
         <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1526,10 +1526,10 @@
         <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1537,13 +1537,13 @@
         <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1551,13 +1551,13 @@
         <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1565,13 +1565,13 @@
         <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1579,13 +1579,13 @@
         <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1593,13 +1593,13 @@
         <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1607,13 +1607,13 @@
         <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1621,13 +1621,13 @@
         <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1635,13 +1635,13 @@
         <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1649,13 +1649,13 @@
         <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1663,13 +1663,13 @@
         <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1680,10 +1680,10 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1691,13 +1691,13 @@
         <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1708,10 +1708,10 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1719,13 +1719,13 @@
         <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1736,10 +1736,10 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1747,13 +1747,13 @@
         <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1761,13 +1761,13 @@
         <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1775,13 +1775,13 @@
         <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1789,13 +1789,13 @@
         <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1803,13 +1803,13 @@
         <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1817,13 +1817,13 @@
         <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1831,13 +1831,13 @@
         <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C74" t="s">
         <v>51</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1848,10 +1848,10 @@
         <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1859,13 +1859,13 @@
         <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1873,13 +1873,13 @@
         <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1887,13 +1887,13 @@
         <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1904,10 +1904,10 @@
         <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1915,13 +1915,13 @@
         <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1929,13 +1929,13 @@
         <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1943,13 +1943,13 @@
         <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C82" t="s">
         <v>51</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1957,13 +1957,13 @@
         <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1971,13 +1971,13 @@
         <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1985,13 +1985,13 @@
         <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2005,7 +2005,7 @@
         <v>51</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2013,13 +2013,13 @@
         <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2030,10 +2030,10 @@
         <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2041,13 +2041,13 @@
         <v>106</v>
       </c>
       <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" t="s">
         <v>36</v>
       </c>
-      <c r="C89" t="s">
-        <v>6</v>
-      </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2055,13 +2055,13 @@
         <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2069,13 +2069,13 @@
         <v>82</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2083,13 +2083,13 @@
         <v>108</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2097,13 +2097,13 @@
         <v>82</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2114,10 +2114,10 @@
         <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2125,13 +2125,13 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2139,13 +2139,13 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2159,7 +2159,7 @@
         <v>51</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2170,10 +2170,10 @@
         <v>113</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2184,10 +2184,10 @@
         <v>51</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2201,7 +2201,7 @@
         <v>51</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2209,13 +2209,13 @@
         <v>118</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C101" t="s">
         <v>51</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2223,13 +2223,13 @@
         <v>119</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2240,10 +2240,10 @@
         <v>41</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2254,10 +2254,10 @@
         <v>122</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2268,10 +2268,10 @@
         <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2282,10 +2282,10 @@
         <v>41</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2296,10 +2296,10 @@
         <v>41</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2307,13 +2307,13 @@
         <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2324,10 +2324,10 @@
         <v>122</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2335,13 +2335,13 @@
         <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2352,10 +2352,10 @@
         <v>117</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2366,10 +2366,10 @@
         <v>131</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2377,13 +2377,13 @@
         <v>132</v>
       </c>
       <c r="B113" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C113" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2394,10 +2394,10 @@
         <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2411,7 +2411,7 @@
         <v>51</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2422,10 +2422,10 @@
         <v>131</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2436,10 +2436,10 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2450,10 +2450,10 @@
         <v>51</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2467,7 +2467,7 @@
         <v>51</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2475,13 +2475,13 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2489,13 +2489,13 @@
         <v>139</v>
       </c>
       <c r="B121" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2506,10 +2506,10 @@
         <v>41</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2520,10 +2520,10 @@
         <v>51</v>
       </c>
       <c r="C123" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2537,7 +2537,7 @@
         <v>51</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2548,10 +2548,10 @@
         <v>92</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2562,10 +2562,10 @@
         <v>51</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2576,10 +2576,10 @@
         <v>92</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2590,10 +2590,10 @@
         <v>51</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2607,7 +2607,7 @@
         <v>51</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2621,7 +2621,7 @@
         <v>51</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2632,10 +2632,10 @@
         <v>51</v>
       </c>
       <c r="C131" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
